--- a/biology/Écologie/Steppe_désertique_du_bassin_des_Grands_Lacs_(Asie)/Steppe_désertique_du_bassin_des_Grands_Lacs_(Asie).xlsx
+++ b/biology/Écologie/Steppe_désertique_du_bassin_des_Grands_Lacs_(Asie)/Steppe_désertique_du_bassin_des_Grands_Lacs_(Asie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Steppe_d%C3%A9sertique_du_bassin_des_Grands_Lacs_(Asie)</t>
+          <t>Steppe_désertique_du_bassin_des_Grands_Lacs_(Asie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La steppe désertique du bassin des Grands Lacs est une écorégion terrestre définie par le Fonds mondial pour la nature (WWF), qui appartient au biome des déserts et brousses xériques de l'écozone paléarctique. Il s'agit d'une importante dépression de l'Ouest de la Mongolie entourée par les monts Altaï et Khangaï et abritant plusieurs lacs, notamment : Uvs, Khyargas, Khar-Us, Khar et Airag.
 </t>
